--- a/Прочие файлы/Протокол №12.xlsx
+++ b/Прочие файлы/Протокол №12.xlsx
@@ -12,11 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="90">
   <si>
     <t xml:space="preserve">Протокол №12
 проверки работоспособности комплекса счётчик - LoRa-модуль
-среда, 23 октября 2019 12:34:32</t>
+четверг, 24 октября 2019 01:10:20</t>
   </si>
   <si>
     <t xml:space="preserve">№ п/п</t>
@@ -64,148 +64,292 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">3331333773385F0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016C0940/
-3338470E333133374000180073385F0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40001800333133373338470E66697A45/
-546F70617A313034/
-73385F0E0000000073385F0E1551254B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333133375A38610C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">016E0927/
-3338470C3331333727001A005A38610C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27001A00333133373338470C66697A43/
-546F70617A313034/
-14385D0C0000000014385D0C3C511B4F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3331333750385E0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0163091D/
-3338470E333133371D00170050385E0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D001700333133373338470E66697A45/
-546F70617A313034/
-2E38500E000000002E38500E3651244B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3331333751386C0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0151091E/
-3338470C333133371E00250051386C0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1E002500333133373338470C66697A43/
-546F70617A313034/
-2D38620C000000002D38620C3751164F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333133377138520E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">017F093E/
-3338470E333133373E000B007138520E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3E000B00333133373338470E66697A45/
-546F70617A313034/
-0D384C0E000000000D384C0E1751284B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333133377438700C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">015D0941/
-3338470C33313337410029007438700C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41002900333133373338470C66697A43/
-546F70617A313034/
-72386E0C0000000072386E0C12510A4F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3033373162385D08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01660B2C/
-33384708303337312F00160062385D08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2F0016003033373133384708636B7E39/
-546F70617A313034/
-1C385108000000001C38510801532331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3033373162388008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01490B2C/
-33384708303337312F00390062388008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2F0039003033373133384708636B7E39/
-546F70617A313034/
-1C387E08000000001C387E080153FE31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333133375038670C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0154091D/
-3338470C333133371D0020005038670C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D002000333133373338470C66697A43/
-546F70617A313034/
-2E38670C000000002E38670C36511D4F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3331333777385E0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01630944/
-3338470C333133374400170077385E0C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44001700333133373338470C66697A43/
-546F70617A313034/
-7738500C000000007738500C1151244F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3331333770386D0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0152093D/
-3338470E333133373D00260070386D0E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D002600333133373338470E66697A45/
-546F70617A313034/
-0E38610E000000000E38610E1651174B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3033373163388508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">014E0B33/
-333847083033373130003E0063388508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30003E003033373133384708636B7E39/
-546F70617A313034/
-0338790800000000033879080053FB31</t>
+    <t xml:space="preserve">3033373162384E08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01770B2C/
+33384708303337312F00070062384E08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F0007003033373133384708636B7E39/
+546F70617A313034/
+1C384008000000001C38400801533031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3331333772385A0E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0167093F/
+3338470E333133373F00130072385A0E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F001300333133373338470E66697A45/
+546F70617A313034/
+0C38540E000000000C38540E1451204B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375038750C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">015A091D/
+3338470C333133371D002E005038750C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1D002E00333133373338470C66697A43/
+546F70617A313034/
+2E38690C000000002E38690C36510F4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3331333774386F0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">015C0941/
+3338470C333133374100280074386F0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41002800333133373338470C66697A43/
+546F70617A313034/
+72386F0C0000000072386F0C1251154F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375238790D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0046091F/
+3338470D333133371F0032005238790D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F003200333133373338470D66697A44/
+546F70617A313034/
+2C38750D000000002C38750D34510349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3331333777386F0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">015C0944/
+3338470C333133374400280077386F0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44002800333133373338470C66697A43/
+546F70617A313034/
+77386F0C0000000077386F0C1151154F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133377238530C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0178093F/
+3338470C333133373F000C007238530C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3F000C00333133373338470C66697A43/
+546F70617A313034/
+0C384B0C000000000C384B0C1451294F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133377738680C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01550944/
+3338470C33313337440021007738680C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44002100333133373338470C66697A43/
+546F70617A313034/
+7738660C000000007738660C1151124F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3033373165386508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016E0B31/
+333847083033373132001E0065386508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32001E003033373133384708636B7E39/
+546F70617A313034/
+01385908000000000138590806531B31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375238590C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0166091F/
+3338470C333133371F0012005238590C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F001200333133373338470C66697A43/
+546F70617A313034/
+2C38550C000000002C38550C3451234F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375B387E0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01430928/
+3338470C33313337280037005B387E0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28003700333133373338470C66697A43/
+546F70617A313034/
+1B38700C000000001B38700C3D51044F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3331333751385B0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0160091E/
+3338470C333133371E00140051385B0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1E001400333133373338470C66697A43/
+546F70617A313034/
+2D38530C000000002D38530C3751214F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375138630C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0168091E/
+3338470C333133371E001C005138630C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1E001C00333133373338470C66697A43/
+546F70617A313034/
+2D385B0C000000002D385B0C3751194F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133374E38730C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0158091B/
+3338470C333133371B002C004E38730C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B002C00333133373338470C66697A43/
+546F70617A313034/
+28386B0C0000000028386B0C2851094F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303337316B386508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016E0B3B/
+333847083033373138001E006B386508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38001E003033373133384708636B7E39/
+546F70617A313034/
+0B385908000000000B38590808531B31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375A386B0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01500927/
+3338470C33313337270024005A386B0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27002400333133373338470C66697A43/
+546F70617A313034/
+1438630C000000001438630C3C51114F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375238770C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0144091F/
+3338470C333133371F0030005238770C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F003000333133373338470C66697A43/
+546F70617A313034/
+2C38770C000000002C38770C34510D4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133375838530C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01780925/
+3338470C3331333725000C005838530C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000C00333133373338470C66697A43/
+546F70617A313034/
+16384B0C0000000016384B0C3E51294F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3033373162388308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">014C0B2C/
+33384708303337312F003C0062388308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2F003C003033373133384708636B7E39/
+546F70617A313034/
+1C387B08000000001C387B080153FD31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303337316A385308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">017C0B34/
+333847083033373137000C006A385308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37000C003033373133384708636B7E39/
+546F70617A313034/
+04384B080000000004384B0809532D31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133376638620A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">016F0933/
+3338470A3331333733001B006638620A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33001B00333133373338470A66697A41/
+546F70617A313034/
+00385C0A0000000000385C0A0051184B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133377538530E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01780942/
+3338470E3331333742000C007538530E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42000C00333133373338470E66697A45/
+546F70617A313034/
+71384B0E0000000071384B0E1351294B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3033373166385708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01600B30/
+33384708303337313300100066385708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330010003033373133384708636B7E39/
+546F70617A313034/
+00385708000000000038570805532931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333133377038730E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0158093D/
+3338470E333133373D002C007038730E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D002C00333133373338470E66697A45/
+546F70617A313034/
+0E386B0E000000000E386B0E1651094B</t>
   </si>
   <si>
     <t xml:space="preserve">Испытание провёл:</t>
@@ -282,10 +426,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="2.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="2.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -368,11 +511,9 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -406,11 +547,9 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -444,11 +583,9 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -482,11 +619,9 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
@@ -520,11 +655,9 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>28</v>
@@ -558,11 +691,9 @@
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -596,11 +727,9 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -634,11 +763,9 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -672,11 +799,9 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
@@ -710,11 +835,9 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
@@ -748,11 +871,9 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>46</v>
@@ -786,11 +907,9 @@
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
@@ -820,12 +939,444 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="17">
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +1392,7 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G29:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
